--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology-example/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology-example/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -488,7 +488,7 @@
 </t>
   </si>
   <si>
-    <t>実行者/実施者または他のシステムによって、この診断レポートに割り当てられた識別子。【詳細参照】</t>
+    <t>実行者/実施者または他のシステムによって、この診断レポートに割り当てられた識別子【詳細参照】</t>
   </si>
   <si>
     <t>実行者または他のシステムによってこのレポートに割り当てられた識別子。</t>
@@ -630,7 +630,7 @@
     <t>radiology</t>
   </si>
   <si>
-    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード。【詳細参照】</t>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード【詳細参照】</t>
   </si>
   <si>
     <t>レポートを作成した臨床分野・部門、または診断サービス（CT, US, MRIなど）を分類するコード。 これは、検索、並べ替え、および表示の目的で使用される。【JP-Core仕様】放射線レポートは第1コードとして LP29684-5 を固定値として設定。第2コード以下にDICOMModalityコードを列挙することでレポートの対象検査内容を示す。</t>
@@ -950,7 +950,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートを説明するコードまたは名前。【詳細参照】</t>
+    <t>診断レポートを説明するコードまたは名前【詳細参照】</t>
   </si>
   <si>
     <t>この診断レポートを表現するコードや名称</t>
@@ -1064,7 +1064,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートの対象患者に関する情報。【詳細参照】</t>
+    <t>診断レポートの対象患者に関する情報【詳細参照】</t>
   </si>
   <si>
     <t>レポートの対象。 必ずでは無いが、通常、これには「患者」が該当する。</t>
@@ -1100,7 +1100,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートが関係するヘルスケアイベントに関する情報。【詳細参照】</t>
+    <t>診断レポートが関係するヘルスケアイベントに関する情報【詳細参照】</t>
   </si>
   <si>
     <t>この診断レポートが関するヘルスケアイベント。</t>
@@ -1136,7 +1136,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートの作成日時。【詳細参照】</t>
+    <t>診断レポートの作成日時【詳細参照】</t>
   </si>
   <si>
     <t>観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、読影開始の時間であり、日付/時刻自体のみが提供される。</t>
@@ -1173,7 +1173,7 @@
 </t>
   </si>
   <si>
-    <t>このバージョンの診断レポートが医療者に提供/確定された日時。【詳細参照】</t>
+    <t>このバージョンの診断レポートが医療者に提供/確定された日時【詳細参照】</t>
   </si>
   <si>
     <t>このバージョンのレポートがプロバイダに提供された日時。通常、レポートがレビューおよび検証された後になる。</t>
@@ -1206,7 +1206,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報。【詳細参照】</t>
+    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報【詳細参照】</t>
   </si>
   <si>
     <t>レポートの発行を担当するもの。</t>
@@ -1239,7 +1239,7 @@
 Reported by</t>
   </si>
   <si>
-    <t>診断レポートの結論と解釈に責任を持つ医療者/組織に関する情報。【詳細参照】</t>
+    <t>診断レポートの結論と解釈に責任を持つ医療者/組織に関する情報【詳細参照】</t>
   </si>
   <si>
     <t>レポートの結論や読影に関わる医師や組織</t>
@@ -1313,7 +1313,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報。【詳細参照】</t>
+    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報【詳細参照】</t>
   </si>
   <si>
     <t>実行された画像検査の完全な詳細に関する1つあるいは複数のリンク。通常、これは DICOM対応モダリティによって実行されるイメージングだが、DICOMであることが必須ではない。完全に有効な PACS ビューアは、この情報を使用してソース イメージのビューを提供できる。</t>
@@ -1337,7 +1337,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに関連づけられたメディアに関する情報。【詳細参照】</t>
+    <t>診断レポートに関連づけられたメディアに関する情報【詳細参照】</t>
   </si>
   <si>
     <t>このレポートに関連付けられているキーイメージの一覧。</t>
@@ -1422,7 +1422,7 @@
 </t>
   </si>
   <si>
-    <t>簡潔かつ臨床的な文脈で表現した診断レポートの要約結論（解釈、インプレッション）。</t>
+    <t>簡潔かつ臨床的な文脈で表現した診断レポートの要約結論（解釈、インプレッション）</t>
   </si>
   <si>
     <t>診断報告書の簡潔かつ臨床的に文脈化された要約結論(interpretation/impression)</t>
@@ -1444,7 +1444,7 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>診断レポートの要約結論（解釈、インプレッション）を表すコード。【詳細参照】</t>
+    <t>診断レポートの要約結論（解釈、インプレッション）を表すコード【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートの要約の結論 (interpretation/impression) を表す 1 つ以上のコード。</t>
@@ -1474,7 +1474,7 @@
 </t>
   </si>
   <si>
-    <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）。【詳細参照】</t>
+    <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）【詳細参照】</t>
   </si>
   <si>
     <t>診断サービスによって発行された結果全体のリッチ テキスト表現。複数の形式は許可されるが、意味的に等価である必要がある。</t>
